--- a/experiment1/final_data.xlsx
+++ b/experiment1/final_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="306">
   <si>
     <t>ID</t>
   </si>
@@ -924,6 +924,12 @@
   </si>
   <si>
     <t>Victoria</t>
+  </si>
+  <si>
+    <t>202026</t>
+  </si>
+  <si>
+    <t>Donna</t>
   </si>
 </sst>
 </file>
@@ -968,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5674,6 +5680,53 @@
         <v>28</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>304</v>
+      </c>
+      <c r="B101" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s">
+        <v>57</v>
+      </c>
+      <c r="I101" t="s">
+        <v>75</v>
+      </c>
+      <c r="J101" t="s">
+        <v>24</v>
+      </c>
+      <c r="K101" t="s">
+        <v>38</v>
+      </c>
+      <c r="L101" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>37</v>
+      </c>
+      <c r="N101" t="s">
+        <v>38</v>
+      </c>
+      <c r="O101" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
